--- a/TestData/Test.xlsx
+++ b/TestData/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EggPlant\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suganthinatrajan/Eggplant_Testcases/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E716D44E-9C8B-45A5-A2E5-7B4184DC9BF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353E0B0E-CEB3-644B-A787-CE154E860D7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19320" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="JS" sheetId="2" r:id="rId1"/>
@@ -1929,20 +1929,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4FE13A-C238-440C-BD75-766A4748C928}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53:F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="90.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="28"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -1979,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1999,10 +1999,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>400</v>
       </c>
@@ -2019,10 +2019,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -2039,10 +2039,10 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -2059,10 +2059,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
@@ -2079,10 +2079,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>401</v>
       </c>
@@ -2099,10 +2099,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
@@ -2119,10 +2119,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>402</v>
       </c>
@@ -2139,10 +2139,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -2159,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>403</v>
       </c>
@@ -2179,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -2199,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -2219,10 +2219,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -2239,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>401</v>
       </c>
@@ -2259,10 +2259,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
@@ -2279,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>402</v>
       </c>
@@ -2299,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>404</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>405</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>69</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>406</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>51</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>407</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>53</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>405</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>406</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>61</v>
       </c>
@@ -2658,11 +2658,11 @@
       <c r="E36" s="26">
         <v>1</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F36" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -2678,11 +2678,11 @@
       <c r="E37" s="27">
         <v>2</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F37" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>408</v>
       </c>
@@ -2698,11 +2698,11 @@
       <c r="E38" s="27">
         <v>2</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F38" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -2718,11 +2718,11 @@
       <c r="E39" s="27">
         <v>2</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F39" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
@@ -2738,11 +2738,11 @@
       <c r="E40" s="27">
         <v>2</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F40" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -2758,11 +2758,11 @@
       <c r="E41" s="27">
         <v>2</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F41" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>397</v>
       </c>
@@ -2778,11 +2778,11 @@
       <c r="E42" s="27">
         <v>2</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F42" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>409</v>
       </c>
@@ -2798,11 +2798,11 @@
       <c r="E43" s="27">
         <v>2</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F43" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
@@ -2818,11 +2818,11 @@
       <c r="E44" s="27">
         <v>2</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F44" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>74</v>
       </c>
@@ -2838,11 +2838,11 @@
       <c r="E45" s="27">
         <v>2</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F45" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>410</v>
       </c>
@@ -2858,11 +2858,11 @@
       <c r="E46" s="27">
         <v>2</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F46" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -2878,11 +2878,11 @@
       <c r="E47" s="27">
         <v>1</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F47" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>411</v>
       </c>
@@ -2898,11 +2898,11 @@
       <c r="E48" s="27">
         <v>1</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F48" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -2918,11 +2918,11 @@
       <c r="E49" s="27">
         <v>1</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F49" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
@@ -2938,11 +2938,11 @@
       <c r="E50" s="27">
         <v>1</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F50" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>72</v>
       </c>
@@ -2958,11 +2958,11 @@
       <c r="E51" s="27">
         <v>1</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F51" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>422</v>
       </c>
@@ -2978,11 +2978,11 @@
       <c r="E52" s="27">
         <v>1</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F52" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>412</v>
       </c>
@@ -2998,11 +2998,11 @@
       <c r="E53" s="27">
         <v>1</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F53" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>75</v>
       </c>
@@ -3018,11 +3018,11 @@
       <c r="E54" s="27">
         <v>1</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F54" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
@@ -3038,11 +3038,11 @@
       <c r="E55" s="27">
         <v>1</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F55" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>413</v>
       </c>
@@ -3058,11 +3058,11 @@
       <c r="E56" s="27">
         <v>1</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F56" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="29" t="s">
         <v>79</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
         <v>80</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="29" t="s">
         <v>414</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="29" t="s">
         <v>81</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
         <v>82</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="29" t="s">
         <v>83</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="29" t="s">
         <v>398</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="29" t="s">
         <v>415</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="29" t="s">
         <v>84</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="29" t="s">
         <v>85</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="29" t="s">
         <v>416</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="29" t="s">
         <v>86</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="29" t="s">
         <v>417</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="29" t="s">
         <v>87</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="29" t="s">
         <v>88</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
         <v>89</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="29" t="s">
         <v>399</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="29" t="s">
         <v>418</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="29" t="s">
         <v>90</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="29" t="s">
         <v>91</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="29" t="s">
         <v>419</v>
       </c>
@@ -3492,28 +3492,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D738776A-5825-42F9-9F09-6439114E8738}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="62.81640625" style="7"/>
-    <col min="14" max="14" width="23.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="62.81640625" style="7"/>
+    <col min="1" max="1" width="62.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="62.83203125" style="7"/>
+    <col min="14" max="14" width="23.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="62.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>184</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>185</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>186</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>187</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>188</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>189</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>190</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>193</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>194</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>195</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>196</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>197</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>198</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>199</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>200</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>145</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>146</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>147</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>148</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>149</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>150</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>151</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>152</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>153</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>97</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>98</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>93</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>94</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>99</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>100</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>101</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>96</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>102</v>
       </c>
@@ -4443,21 +4443,21 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D19"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60:A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="90.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>209</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>210</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>211</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>212</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>213</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>214</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>215</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>216</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>217</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>218</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>219</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>220</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>221</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>222</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>223</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>224</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>225</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>226</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>227</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>228</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>229</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>230</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>231</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>232</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>233</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>234</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>235</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>236</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>237</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>238</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>239</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>240</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>241</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>242</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>243</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>244</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
         <v>114</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
         <v>115</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
         <v>116</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
         <v>117</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
         <v>118</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>119</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>120</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
         <v>121</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="31" t="s">
         <v>122</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
         <v>123</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
         <v>125</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="31" t="s">
         <v>127</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="31" t="s">
         <v>128</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="31" t="s">
         <v>129</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="31" t="s">
         <v>130</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="31" t="s">
         <v>131</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="31" t="s">
         <v>132</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="31" t="s">
         <v>133</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="31" t="s">
         <v>134</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="31" t="s">
         <v>135</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="31" t="s">
         <v>136</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="32" t="s">
         <v>137</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>155</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>156</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>157</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>158</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>159</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>160</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>161</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>162</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>163</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="32" t="s">
         <v>164</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>165</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>166</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>167</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>169</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>170</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>171</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>172</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>173</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>174</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
         <v>175</v>
       </c>
@@ -6066,26 +6066,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0063960F-DC2E-4A0A-AB00-73E69C7813D4}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>306</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>309</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>277</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>279</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>278</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>280</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>281</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>282</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>283</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>284</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>285</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>286</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>287</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>288</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>289</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>290</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>291</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>292</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>293</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>294</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>356</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>358</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>359</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>360</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>361</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>362</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>363</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>364</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>365</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>366</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>367</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>368</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>369</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>370</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>371</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>372</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>373</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>374</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>375</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>376</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>377</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>378</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>379</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>380</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>381</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>382</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
         <v>383</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>384</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
         <v>385</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>386</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
         <v>387</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
         <v>388</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
         <v>389</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
         <v>390</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>391</v>
       </c>
@@ -8008,26 +8008,26 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>295</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>296</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>297</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>298</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>299</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>300</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>301</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>302</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>303</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>304</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>305</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>278</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>279</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>344</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>345</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>39</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>44</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>48</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>61</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>72</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>346</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>347</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>348</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>349</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>350</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>235</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>351</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
         <v>352</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
         <v>353</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
         <v>354</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>355</v>
       </c>
@@ -8517,17 +8517,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="64.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="64.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>421</v>
       </c>
